--- a/Openize.OpenXML-SDK.Examples.Usage/Documents/Workbook/EmptyWorkbook.xlsx
+++ b/Openize.OpenXML-SDK.Examples.Usage/Documents/Workbook/EmptyWorkbook.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R6a4b9a546b924dd0"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R3f813a56be624dba"/>
   </x:sheets>
 </x:workbook>
 </file>
